--- a/fields.xlsx
+++ b/fields.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wat/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wat/GitHub/jirokichi-shouten/JCL4D_v20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD390CEF-E718-4648-BFCE-067B3DC9D15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C26B77-6C7B-3E47-9AB3-EEC9D00D4E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1820" windowWidth="24660" windowHeight="18200" xr2:uid="{9BF3CBF5-F575-AA49-B311-FB54E550DB9C}"/>
+    <workbookView xWindow="0" yWindow="8420" windowWidth="28220" windowHeight="17500" xr2:uid="{9BF3CBF5-F575-AA49-B311-FB54E550DB9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -244,15 +244,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>US_ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ユーザID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -628,10 +628,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E44265-0769-4049-977B-7618DBB3DE21}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="116" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2440" topLeftCell="A18"/>
+      <selection activeCell="A34" sqref="A34:XFD34"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1108,49 +1110,49 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="G28" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -1165,33 +1167,32 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1">
-        <v>255</v>
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="1"/>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>2</v>
@@ -1199,42 +1200,83 @@
       <c r="C31" s="1">
         <v>255</v>
       </c>
-      <c r="D31" s="1">
-        <v>0</v>
+      <c r="D31">
+        <v>1</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>255</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
         <v>43</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>2</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>20</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>54</v>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/fields.xlsx
+++ b/fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wat/GitHub/jirokichi-shouten/JCL4D_v20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C26B77-6C7B-3E47-9AB3-EEC9D00D4E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF1B73D-5902-2945-B244-5BADE3CFA00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8420" windowWidth="28220" windowHeight="17500" xr2:uid="{9BF3CBF5-F575-AA49-B311-FB54E550DB9C}"/>
+    <workbookView xWindow="0" yWindow="5540" windowWidth="28220" windowHeight="17500" xr2:uid="{9BF3CBF5-F575-AA49-B311-FB54E550DB9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>削除フラグ</t>
-  </si>
-  <si>
-    <t>_</t>
   </si>
   <si>
     <t>SORT_ORDER</t>
@@ -252,7 +249,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>_</t>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -631,9 +628,9 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2440" topLeftCell="A18"/>
+      <pane ySplit="2440" topLeftCell="A18" activePane="bottomLeft"/>
       <selection activeCell="A34" sqref="A34:XFD34"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:XFD34"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -648,16 +645,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -682,7 +679,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -697,12 +694,12 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -717,12 +714,12 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -737,32 +734,32 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -777,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -805,21 +802,21 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -844,7 +841,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -859,12 +856,12 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -879,27 +876,27 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -924,26 +921,26 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
         <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -963,7 +960,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -978,12 +975,12 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>2</v>
@@ -998,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -1019,12 +1016,12 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -1039,15 +1036,15 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
         <v>38</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>2</v>
@@ -1062,15 +1059,15 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
         <v>41</v>
-      </c>
-      <c r="G23" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -1085,12 +1082,12 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -1105,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1130,29 +1127,29 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
         <v>48</v>
       </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>49</v>
-      </c>
-      <c r="G28" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -1172,27 +1169,27 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
         <v>54</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>2</v>
@@ -1207,13 +1204,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>2</v>
@@ -1228,15 +1225,15 @@
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -1251,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1276,7 +1273,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/fields.xlsx
+++ b/fields.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wat/GitHub/jirokichi-shouten/JCL4D_v20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF1B73D-5902-2945-B244-5BADE3CFA00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B3A348-5BFD-D440-98EC-047519A8DDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="5540" windowWidth="28220" windowHeight="17500" xr2:uid="{9BF3CBF5-F575-AA49-B311-FB54E550DB9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -250,6 +252,17 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N件</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ケン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１対１</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -625,12 +638,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E44265-0769-4049-977B-7618DBB3DE21}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2440" topLeftCell="A18" activePane="bottomLeft"/>
-      <selection activeCell="A34" sqref="A34:XFD34"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2440" topLeftCell="A17" activePane="bottomLeft"/>
+      <selection sqref="A1:H35"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -643,7 +656,7 @@
     <col min="7" max="7" width="89.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -656,8 +669,11 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -677,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -697,7 +713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -717,7 +733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -737,7 +753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -757,7 +773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -780,7 +796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -800,12 +816,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -818,8 +834,11 @@
       <c r="G10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -839,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -859,7 +878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -879,7 +898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -899,7 +918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -919,7 +938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>55</v>
       </c>

--- a/fields.xlsx
+++ b/fields.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wat/GitHub/jirokichi-shouten/JCL4D_v20/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wat/GitHub/jirokichi-shouten/4D_CAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B3A348-5BFD-D440-98EC-047519A8DDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E506D1BE-4071-6047-B7BF-80CB52C12413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5540" windowWidth="28220" windowHeight="17500" xr2:uid="{9BF3CBF5-F575-AA49-B311-FB54E550DB9C}"/>
+    <workbookView xWindow="7940" yWindow="2240" windowWidth="28220" windowHeight="17500" xr2:uid="{9BF3CBF5-F575-AA49-B311-FB54E550DB9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -641,9 +641,9 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2440" topLeftCell="A17" activePane="bottomLeft"/>
-      <selection sqref="A1:H35"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <pane ySplit="2440" topLeftCell="A5" activePane="bottomLeft"/>
+      <selection activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>

--- a/fields.xlsx
+++ b/fields.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wat/GitHub/jirokichi-shouten/4D_CAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E506D1BE-4071-6047-B7BF-80CB52C12413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0010ED69-64A2-D141-A5B1-6C82FAD82582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7940" yWindow="2240" windowWidth="28220" windowHeight="17500" xr2:uid="{9BF3CBF5-F575-AA49-B311-FB54E550DB9C}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -263,6 +262,28 @@
   </si>
   <si>
     <t>１対１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Is Blob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLOB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリューblob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印刷設定に使う</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">インサツセッテイ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ツカウ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -638,12 +659,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E44265-0769-4049-977B-7618DBB3DE21}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2440" topLeftCell="A5" activePane="bottomLeft"/>
+      <pane ySplit="2440" topLeftCell="A2" activePane="bottomLeft"/>
       <selection activeCell="E3" sqref="E3"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="A1:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -920,150 +941,150 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="1">
-        <v>255</v>
+      <c r="C20">
+        <v>80</v>
       </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C21">
-        <v>20</v>
+      <c r="C21" s="1">
+        <v>255</v>
       </c>
       <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1">
-        <v>255</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>2</v>
@@ -1078,35 +1099,38 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C24">
-        <v>20</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="C24" s="1">
+        <v>255</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -1121,74 +1145,74 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="G29" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -1203,33 +1227,32 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1">
-        <v>255</v>
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="1"/>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>2</v>
@@ -1237,61 +1260,82 @@
       <c r="C32" s="1">
         <v>255</v>
       </c>
-      <c r="D32" s="1">
-        <v>0</v>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>255</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>2</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>20</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
         <v>4</v>
       </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
         <v>55</v>
       </c>
     </row>

--- a/fields.xlsx
+++ b/fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wat/GitHub/jirokichi-shouten/4D_CAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0010ED69-64A2-D141-A5B1-6C82FAD82582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891BDC74-4971-2243-AB54-09A3EEE09C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7940" yWindow="2240" windowWidth="28220" windowHeight="17500" xr2:uid="{9BF3CBF5-F575-AA49-B311-FB54E550DB9C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -262,28 +262,6 @@
   </si>
   <si>
     <t>１対１</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Is Blob</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BLOB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バリューblob</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>印刷設定に使う</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">インサツセッテイ </t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">ツカウ </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -659,12 +637,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E44265-0769-4049-977B-7618DBB3DE21}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2440" topLeftCell="A2" activePane="bottomLeft"/>
       <selection activeCell="E3" sqref="E3"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="A1:H36"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -941,150 +919,150 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C20">
-        <v>80</v>
+      <c r="C20" s="1">
+        <v>255</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>31</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="1">
-        <v>255</v>
+      <c r="C21">
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="C22" s="1">
+        <v>255</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>2</v>
@@ -1099,38 +1077,35 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="1">
-        <v>255</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -1145,74 +1120,74 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -1227,32 +1202,33 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>255</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>54</v>
-      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>2</v>
@@ -1260,82 +1236,61 @@
       <c r="C32" s="1">
         <v>255</v>
       </c>
-      <c r="D32">
-        <v>1</v>
+      <c r="D32" s="1">
+        <v>0</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7">
+        <v>51</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="1">
-        <v>255</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
         <v>55</v>
       </c>
     </row>
